--- a/spreadsheets/Rengar.xlsx
+++ b/spreadsheets/Rengar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725EB582-1014-455B-A223-B269D735C01A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4519E413-443B-47D4-B545-765000B63D14}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29850" yWindow="1680" windowWidth="21525" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>contributor</t>
   </si>
   <si>
-    <t>Only Rengar / Yoshi</t>
-  </si>
-  <si>
     <t>Aatrox</t>
   </si>
   <si>
@@ -456,6 +453,9 @@
   </si>
   <si>
     <t>pressure early don't let him push you in you stack conq a lot faster which is usually all that matters when you trade.</t>
+  </si>
+  <si>
+    <t>Only Rengar</t>
   </si>
 </sst>
 </file>
@@ -854,7 +854,7 @@
   <dimension ref="A1:O1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -893,90 +893,90 @@
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="8"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2005,485 +2005,485 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="11">
         <v>7</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="12">
         <v>6</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="11">
         <v>7</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="11">
         <v>6</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="11">
         <v>9</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="11">
         <v>6</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="11">
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="11">
         <v>6</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="11">
         <v>6</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="11">
         <v>7</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="11">
         <v>6</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="11">
         <v>7</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="11">
         <v>8</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="11">
         <v>7</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="11">
         <v>6</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17" s="11">
         <v>4</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" s="11">
         <v>7</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="11">
         <v>8</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="11">
         <v>7</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B21" s="11">
         <v>6</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" s="11">
         <v>5</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="11">
         <v>5</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B24" s="11">
         <v>8</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B25" s="11">
         <v>7</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26" s="11">
         <v>7</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B27" s="11">
         <v>7</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B28" s="11">
         <v>7</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B29" s="11">
         <v>7</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B30" s="11">
         <v>7</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B31" s="11">
         <v>7</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B32" s="11">
         <v>6</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B33" s="11">
         <v>7</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B34" s="11">
         <v>6</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B35" s="11">
         <v>6</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B36" s="11">
         <v>6</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B37" s="11">
         <v>4</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B38" s="11">
         <v>6</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B39" s="11">
         <v>7</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B40" s="11">
         <v>7</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B41" s="11">
         <v>6</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B42" s="11">
         <v>6</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B43" s="11">
         <v>6</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B44" s="11">
         <v>7</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3479,159 +3479,159 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="12">
         <v>6</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="12">
         <v>7</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="12">
         <v>9</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="12">
         <v>8</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="11">
         <v>7</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="11">
         <v>6</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" s="11">
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="11">
         <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="11">
         <v>7</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="11">
         <v>7</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" s="11">
         <v>7</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B13" s="11">
         <v>9</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" s="11">
         <v>8</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B15" s="11">
         <v>7</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.25" x14ac:dyDescent="0.2"/>
